--- a/DataSource/DataSource - Endoso - Modificacion de Suma Asegurada.xlsx
+++ b/DataSource/DataSource - Endoso - Modificacion de Suma Asegurada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3600D1ED-93BB-4227-9F51-23BE7C952CF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CBDE46-1C90-486A-BAB3-299E34A23DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="3">
-        <v>11111002586</v>
+        <v>11111003035</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
